--- a/Document/DBSchema.xlsx
+++ b/Document/DBSchema.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitLab\DemoMVCProject\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E68FF78-B734-4E74-A271-A6E0E8D159D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-25860" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="物料主檔(Material)" sheetId="1" r:id="rId1"/>
+    <sheet name="物料庫存(Inventory)" sheetId="2" r:id="rId2"/>
+    <sheet name="使用者(User)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +26,190 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="44">
+  <si>
+    <t>TableName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料主檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nullable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(250)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Creater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastEditor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後編輯者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後編輯時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料庫存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(10,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +217,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +254,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +559,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{481D247E-96A9-4EA7-AADB-87C3ADB076C5}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E25FACC-0DA1-4C9A-AC07-FA2A5E5BB618}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>